--- a/archivos/tabla_temporadas.xlsx
+++ b/archivos/tabla_temporadas.xlsx
@@ -1,22 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.10.18.220\backup\info\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTADISTICA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEC29F-CE87-4013-AEBA-5FCC8EF7DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E249F90-8936-4C59-9E62-A70E507DFF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hilder</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{96D011B1-2553-4C6B-AA95-45898C110FE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=Cosecha([@Columna1])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D7015C35-DFB9-4247-8FF0-9E61DE63E27B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=MAYUSC(TEXTO([@Columna1];"mmm"))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0FE421E9-9077-48FB-A350-905B58D627FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=fechaSQL([@Columna1])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1EE04321-6778-47EE-B2CA-C116720480A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=Cosecha([@Columna1])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{854FDBEB-ABC4-4448-9BE9-247FA56A84A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=TEXTO(K320;"mmmm")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B320" authorId="0" shapeId="0" xr:uid="{3D3B3954-96FA-4154-8643-56BFAC153C41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=MAYUSC(TEXTO([@Columna1];"mmm"))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D320" authorId="0" shapeId="0" xr:uid="{C66313DF-15FF-4CEE-AC6B-C71DF5CADB1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=fechaSQL([@Columna1])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F320" authorId="0" shapeId="0" xr:uid="{B2C61BC0-E5D9-407C-BED5-7D6F770B5505}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=Cosecha([@Columna1])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H320" authorId="0" shapeId="0" xr:uid="{C4029892-2B23-4427-93EA-A522DBF1DEEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hilder:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+=TEXTO(K320;"mmmm")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1288">
   <si>
     <t>cosecha</t>
   </si>
@@ -2925,9 +3151,6 @@
     <t>EASTER 2025</t>
   </si>
   <si>
-    <t>OHIGANS MARZO 2025</t>
-  </si>
-  <si>
     <t>MADRES 2025</t>
   </si>
   <si>
@@ -3072,9 +3295,6 @@
     <t>2024-8-21</t>
   </si>
   <si>
-    <t>2024-9-4</t>
-  </si>
-  <si>
     <t>2024-9-18</t>
   </si>
   <si>
@@ -3093,9 +3313,6 @@
     <t>2025-2-19</t>
   </si>
   <si>
-    <t>2025-2-26</t>
-  </si>
-  <si>
     <t>2025-3-12</t>
   </si>
   <si>
@@ -3144,9 +3361,6 @@
     <t>2025-5-11</t>
   </si>
   <si>
-    <t>2024-10-19</t>
-  </si>
-  <si>
     <t>2024-9-23</t>
   </si>
   <si>
@@ -3157,13 +3371,763 @@
   </si>
   <si>
     <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>2024-9-11</t>
+  </si>
+  <si>
+    <t>2024-9-25</t>
+  </si>
+  <si>
+    <t>2025-1-29</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>DEFECTO 2025</t>
+  </si>
+  <si>
+    <t>AGOSTO 2025</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>DEF25</t>
+  </si>
+  <si>
+    <t>AGO25</t>
+  </si>
+  <si>
+    <t>2025-1-1</t>
+  </si>
+  <si>
+    <t>OHIGANS 2025</t>
+  </si>
+  <si>
+    <t>JUN25T</t>
+  </si>
+  <si>
+    <t>JUL25T</t>
+  </si>
+  <si>
+    <t>AGO25T</t>
+  </si>
+  <si>
+    <t>SEP25T</t>
+  </si>
+  <si>
+    <t>OCT25T</t>
+  </si>
+  <si>
+    <t>NOV25T</t>
+  </si>
+  <si>
+    <t>DIC25T</t>
+  </si>
+  <si>
+    <t>ENE26T</t>
+  </si>
+  <si>
+    <t>FEB26T</t>
+  </si>
+  <si>
+    <t>MAR26T</t>
+  </si>
+  <si>
+    <t>ABR26T</t>
+  </si>
+  <si>
+    <t>MAY26T</t>
+  </si>
+  <si>
+    <t>JUN26T</t>
+  </si>
+  <si>
+    <t>JUL26T</t>
+  </si>
+  <si>
+    <t>AGO26T</t>
+  </si>
+  <si>
+    <t>2025-6-1</t>
+  </si>
+  <si>
+    <t>2025-7-1</t>
+  </si>
+  <si>
+    <t>2025-8-1</t>
+  </si>
+  <si>
+    <t>2025-9-1</t>
+  </si>
+  <si>
+    <t>2025-10-1</t>
+  </si>
+  <si>
+    <t>2025-11-1</t>
+  </si>
+  <si>
+    <t>2025-12-1</t>
+  </si>
+  <si>
+    <t>2026-1-1</t>
+  </si>
+  <si>
+    <t>2026-2-1</t>
+  </si>
+  <si>
+    <t>2026-3-1</t>
+  </si>
+  <si>
+    <t>2026-4-1</t>
+  </si>
+  <si>
+    <t>2026-5-1</t>
+  </si>
+  <si>
+    <t>2026-6-1</t>
+  </si>
+  <si>
+    <t>2026-7-1</t>
+  </si>
+  <si>
+    <t>2026-8-1</t>
+  </si>
+  <si>
+    <t>2025-1-2</t>
+  </si>
+  <si>
+    <t>2025-1-9</t>
+  </si>
+  <si>
+    <t>2025-1-16</t>
+  </si>
+  <si>
+    <t>2025-1-23</t>
+  </si>
+  <si>
+    <t>2025-1-30</t>
+  </si>
+  <si>
+    <t>2025-2-6</t>
+  </si>
+  <si>
+    <t>2025-2-13</t>
+  </si>
+  <si>
+    <t>2025-2-20</t>
+  </si>
+  <si>
+    <t>2025-2-27</t>
+  </si>
+  <si>
+    <t>2025-3-6</t>
+  </si>
+  <si>
+    <t>2025-3-13</t>
+  </si>
+  <si>
+    <t>2025-3-20</t>
+  </si>
+  <si>
+    <t>2025-3-27</t>
+  </si>
+  <si>
+    <t>2025-4-3</t>
+  </si>
+  <si>
+    <t>2025-4-10</t>
+  </si>
+  <si>
+    <t>2025-4-17</t>
+  </si>
+  <si>
+    <t>2025-4-24</t>
+  </si>
+  <si>
+    <t>2025-5-1</t>
+  </si>
+  <si>
+    <t>2025-5-8</t>
+  </si>
+  <si>
+    <t>2025-5-15</t>
+  </si>
+  <si>
+    <t>2025-5-22</t>
+  </si>
+  <si>
+    <t>2025-5-29</t>
+  </si>
+  <si>
+    <t>2025-6-5</t>
+  </si>
+  <si>
+    <t>2025-6-12</t>
+  </si>
+  <si>
+    <t>2025-6-19</t>
+  </si>
+  <si>
+    <t>2025-6-26</t>
+  </si>
+  <si>
+    <t>2025-7-3</t>
+  </si>
+  <si>
+    <t>2025-7-10</t>
+  </si>
+  <si>
+    <t>2025-7-17</t>
+  </si>
+  <si>
+    <t>2025-7-24</t>
+  </si>
+  <si>
+    <t>2025-7-31</t>
+  </si>
+  <si>
+    <t>2025-8-7</t>
+  </si>
+  <si>
+    <t>2025-8-14</t>
+  </si>
+  <si>
+    <t>2025-8-21</t>
+  </si>
+  <si>
+    <t>2025-8-28</t>
+  </si>
+  <si>
+    <t>2025-9-4</t>
+  </si>
+  <si>
+    <t>2025-9-11</t>
+  </si>
+  <si>
+    <t>2025-9-18</t>
+  </si>
+  <si>
+    <t>2025-9-25</t>
+  </si>
+  <si>
+    <t>2025-10-2</t>
+  </si>
+  <si>
+    <t>2025-10-9</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-6</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-12-4</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2026-1-8</t>
+  </si>
+  <si>
+    <t>2026-1-15</t>
+  </si>
+  <si>
+    <t>2026-1-22</t>
+  </si>
+  <si>
+    <t>2026-1-29</t>
+  </si>
+  <si>
+    <t>2026-2-5</t>
+  </si>
+  <si>
+    <t>2026-2-12</t>
+  </si>
+  <si>
+    <t>2026-2-19</t>
+  </si>
+  <si>
+    <t>2026-2-26</t>
+  </si>
+  <si>
+    <t>2026-3-5</t>
+  </si>
+  <si>
+    <t>2026-3-12</t>
+  </si>
+  <si>
+    <t>2026-3-19</t>
+  </si>
+  <si>
+    <t>2026-3-26</t>
+  </si>
+  <si>
+    <t>2026-4-2</t>
+  </si>
+  <si>
+    <t>2026-4-9</t>
+  </si>
+  <si>
+    <t>2026-4-16</t>
+  </si>
+  <si>
+    <t>2026-4-23</t>
+  </si>
+  <si>
+    <t>2026-4-30</t>
+  </si>
+  <si>
+    <t>2026-5-7</t>
+  </si>
+  <si>
+    <t>2026-5-14</t>
+  </si>
+  <si>
+    <t>2026-5-21</t>
+  </si>
+  <si>
+    <t>2026-5-28</t>
+  </si>
+  <si>
+    <t>2026-6-4</t>
+  </si>
+  <si>
+    <t>2026-6-11</t>
+  </si>
+  <si>
+    <t>2026-6-18</t>
+  </si>
+  <si>
+    <t>2026-6-25</t>
+  </si>
+  <si>
+    <t>2026-7-2</t>
+  </si>
+  <si>
+    <t>2026-7-9</t>
+  </si>
+  <si>
+    <t>2026-7-16</t>
+  </si>
+  <si>
+    <t>2026-7-23</t>
+  </si>
+  <si>
+    <t>2026-7-30</t>
+  </si>
+  <si>
+    <t>2026-8-6</t>
+  </si>
+  <si>
+    <t>2026-8-13</t>
+  </si>
+  <si>
+    <t>2026-8-20</t>
+  </si>
+  <si>
+    <t>2026-8-27</t>
+  </si>
+  <si>
+    <t>2026-9-3</t>
+  </si>
+  <si>
+    <t>2026-9-10</t>
+  </si>
+  <si>
+    <t>2026-9-17</t>
+  </si>
+  <si>
+    <t>2026-9-24</t>
+  </si>
+  <si>
+    <t>2026-10-1</t>
+  </si>
+  <si>
+    <t>2026-10-8</t>
+  </si>
+  <si>
+    <t>2026-10-15</t>
+  </si>
+  <si>
+    <t>2026-10-22</t>
+  </si>
+  <si>
+    <t>2026-10-29</t>
+  </si>
+  <si>
+    <t>2026-11-5</t>
+  </si>
+  <si>
+    <t>2026-11-12</t>
+  </si>
+  <si>
+    <t>2026-11-19</t>
+  </si>
+  <si>
+    <t>2026-11-26</t>
+  </si>
+  <si>
+    <t>2026-12-3</t>
+  </si>
+  <si>
+    <t>2026-12-10</t>
+  </si>
+  <si>
+    <t>2026-12-17</t>
+  </si>
+  <si>
+    <t>2026-12-24</t>
+  </si>
+  <si>
+    <t>2026-12-31</t>
+  </si>
+  <si>
+    <t>EN2501</t>
+  </si>
+  <si>
+    <t>EN2502</t>
+  </si>
+  <si>
+    <t>EN2503</t>
+  </si>
+  <si>
+    <t>EN2504</t>
+  </si>
+  <si>
+    <t>EN2505</t>
+  </si>
+  <si>
+    <t>FE2506</t>
+  </si>
+  <si>
+    <t>FE2507</t>
+  </si>
+  <si>
+    <t>FE2508</t>
+  </si>
+  <si>
+    <t>FE2509</t>
+  </si>
+  <si>
+    <t>MA2510</t>
+  </si>
+  <si>
+    <t>MA2511</t>
+  </si>
+  <si>
+    <t>MA2512</t>
+  </si>
+  <si>
+    <t>MA2513</t>
+  </si>
+  <si>
+    <t>AB2514</t>
+  </si>
+  <si>
+    <t>AB2515</t>
+  </si>
+  <si>
+    <t>AB2516</t>
+  </si>
+  <si>
+    <t>AB2517</t>
+  </si>
+  <si>
+    <t>MY2518</t>
+  </si>
+  <si>
+    <t>MY2519</t>
+  </si>
+  <si>
+    <t>MY2520</t>
+  </si>
+  <si>
+    <t>MY2521</t>
+  </si>
+  <si>
+    <t>MY2522</t>
+  </si>
+  <si>
+    <t>JU2523</t>
+  </si>
+  <si>
+    <t>JU2524</t>
+  </si>
+  <si>
+    <t>JU2525</t>
+  </si>
+  <si>
+    <t>JU2526</t>
+  </si>
+  <si>
+    <t>JL2527</t>
+  </si>
+  <si>
+    <t>JL2528</t>
+  </si>
+  <si>
+    <t>JL2529</t>
+  </si>
+  <si>
+    <t>JL2530</t>
+  </si>
+  <si>
+    <t>JL2531</t>
+  </si>
+  <si>
+    <t>AG2532</t>
+  </si>
+  <si>
+    <t>AG2533</t>
+  </si>
+  <si>
+    <t>AG2534</t>
+  </si>
+  <si>
+    <t>AG2535</t>
+  </si>
+  <si>
+    <t>SE2536</t>
+  </si>
+  <si>
+    <t>SE2537</t>
+  </si>
+  <si>
+    <t>SE2538</t>
+  </si>
+  <si>
+    <t>SE2539</t>
+  </si>
+  <si>
+    <t>OC2540</t>
+  </si>
+  <si>
+    <t>OC2541</t>
+  </si>
+  <si>
+    <t>OC2542</t>
+  </si>
+  <si>
+    <t>OC2543</t>
+  </si>
+  <si>
+    <t>OC2544</t>
+  </si>
+  <si>
+    <t>NO2545</t>
+  </si>
+  <si>
+    <t>NO2546</t>
+  </si>
+  <si>
+    <t>NO2547</t>
+  </si>
+  <si>
+    <t>NO2548</t>
+  </si>
+  <si>
+    <t>DI2549</t>
+  </si>
+  <si>
+    <t>DI2550</t>
+  </si>
+  <si>
+    <t>DI2551</t>
+  </si>
+  <si>
+    <t>DI2552</t>
+  </si>
+  <si>
+    <t>EN2601</t>
+  </si>
+  <si>
+    <t>EN2602</t>
+  </si>
+  <si>
+    <t>EN2603</t>
+  </si>
+  <si>
+    <t>EN2604</t>
+  </si>
+  <si>
+    <t>EN2605</t>
+  </si>
+  <si>
+    <t>FE2606</t>
+  </si>
+  <si>
+    <t>FE2607</t>
+  </si>
+  <si>
+    <t>FE2608</t>
+  </si>
+  <si>
+    <t>FE2609</t>
+  </si>
+  <si>
+    <t>MA2610</t>
+  </si>
+  <si>
+    <t>MA2611</t>
+  </si>
+  <si>
+    <t>MA2612</t>
+  </si>
+  <si>
+    <t>MA2613</t>
+  </si>
+  <si>
+    <t>AB2614</t>
+  </si>
+  <si>
+    <t>AB2615</t>
+  </si>
+  <si>
+    <t>AB2616</t>
+  </si>
+  <si>
+    <t>AB2617</t>
+  </si>
+  <si>
+    <t>AB2618</t>
+  </si>
+  <si>
+    <t>MY2619</t>
+  </si>
+  <si>
+    <t>MY2620</t>
+  </si>
+  <si>
+    <t>MY2621</t>
+  </si>
+  <si>
+    <t>MY2622</t>
+  </si>
+  <si>
+    <t>JU2623</t>
+  </si>
+  <si>
+    <t>JU2624</t>
+  </si>
+  <si>
+    <t>JU2625</t>
+  </si>
+  <si>
+    <t>JU2626</t>
+  </si>
+  <si>
+    <t>JL2627</t>
+  </si>
+  <si>
+    <t>JL2628</t>
+  </si>
+  <si>
+    <t>JL2629</t>
+  </si>
+  <si>
+    <t>JL2630</t>
+  </si>
+  <si>
+    <t>JL2631</t>
+  </si>
+  <si>
+    <t>AG2632</t>
+  </si>
+  <si>
+    <t>AG2633</t>
+  </si>
+  <si>
+    <t>AG2634</t>
+  </si>
+  <si>
+    <t>AG2635</t>
+  </si>
+  <si>
+    <t>SE2636</t>
+  </si>
+  <si>
+    <t>SE2637</t>
+  </si>
+  <si>
+    <t>SE2638</t>
+  </si>
+  <si>
+    <t>SE2639</t>
+  </si>
+  <si>
+    <t>OC2640</t>
+  </si>
+  <si>
+    <t>OC2641</t>
+  </si>
+  <si>
+    <t>OC2642</t>
+  </si>
+  <si>
+    <t>OC2643</t>
+  </si>
+  <si>
+    <t>OC2644</t>
+  </si>
+  <si>
+    <t>NO2645</t>
+  </si>
+  <si>
+    <t>NO2646</t>
+  </si>
+  <si>
+    <t>NO2647</t>
+  </si>
+  <si>
+    <t>NO2648</t>
+  </si>
+  <si>
+    <t>DI2649</t>
+  </si>
+  <si>
+    <t>DI2650</t>
+  </si>
+  <si>
+    <t>DI2651</t>
+  </si>
+  <si>
+    <t>DI2652</t>
+  </si>
+  <si>
+    <t>DI2653</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3176,6 +4140,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3204,7 +4188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -3213,13 +4197,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3246,24 +4281,22 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -3290,8 +4323,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3306,30 +4339,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="temporadas" displayName="temporadas" ref="A1:K302" totalsRowShown="0">
-  <autoFilter ref="A1:K302" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="CONTINUA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="temporadas" displayName="temporadas" ref="A1:K424">
+  <autoFilter ref="A1:K424" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K302">
-    <sortCondition ref="K1:K302"/>
+    <sortCondition ref="J1:J302"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cosecha" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="fiesta" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cosecha" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="fiesta" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="año"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="fecha_pico" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fecha_calendario" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cod_temporada" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="fecha_pico" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="fecha_calendario" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cod_temporada" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="tipo"/>
-    <tableColumn id="8" xr3:uid="{6ACCE494-4F07-4643-AFCD-95DDBCC2C9EE}" name="mes_siembra" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5128351C-7F2E-4A3D-B8E6-D727EA4B9857}" name="ano_fiesta" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{8E9619AF-5A97-48DD-9DAC-3EC13FF072F8}" name="orden" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{6957B8E3-192A-46E9-A737-99B24B3FE74B}" name="Columna1" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{6ACCE494-4F07-4643-AFCD-95DDBCC2C9EE}" name="mes_siembra" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{5128351C-7F2E-4A3D-B8E6-D727EA4B9857}" name="ano_fiesta" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{8E9619AF-5A97-48DD-9DAC-3EC13FF072F8}" name="orden" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6957B8E3-192A-46E9-A737-99B24B3FE74B}" name="Columna1" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</calculatedColumnFormula>
+      <totalsRowFormula>+K320+7</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3337,9 +4365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3377,9 +4405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3412,26 +4440,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3464,26 +4475,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3656,12 +4650,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="H424" sqref="H424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,13 +4695,13 @@
         <v>930</v>
       </c>
       <c r="J1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K1" t="s">
         <v>1009</v>
       </c>
-      <c r="K1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>848</v>
       </c>
@@ -3779,7 +4773,7 @@
         <v>41502</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>850</v>
       </c>
@@ -3815,7 +4809,7 @@
         <v>41523</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>853</v>
       </c>
@@ -3887,7 +4881,7 @@
         <v>41537</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>872</v>
       </c>
@@ -3959,7 +4953,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>855</v>
       </c>
@@ -4031,7 +5025,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>857</v>
       </c>
@@ -4139,7 +5133,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>859</v>
       </c>
@@ -4211,7 +5205,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>861</v>
       </c>
@@ -4247,7 +5241,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>863</v>
       </c>
@@ -4283,7 +5277,7 @@
         <v>41691</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>862</v>
       </c>
@@ -4319,7 +5313,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>866</v>
       </c>
@@ -4355,7 +5349,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>865</v>
       </c>
@@ -4463,7 +5457,7 @@
         <v>41746</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>868</v>
       </c>
@@ -4607,7 +5601,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>766</v>
       </c>
@@ -4679,7 +5673,7 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>768</v>
       </c>
@@ -4715,7 +5709,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>771</v>
       </c>
@@ -4787,7 +5781,7 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>790</v>
       </c>
@@ -4859,7 +5853,7 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>773</v>
       </c>
@@ -4931,7 +5925,7 @@
         <v>41965</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>775</v>
       </c>
@@ -5039,7 +6033,7 @@
         <v>42028</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>777</v>
       </c>
@@ -5111,7 +6105,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>779</v>
       </c>
@@ -5147,7 +6141,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>781</v>
       </c>
@@ -5183,7 +6177,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>780</v>
       </c>
@@ -5219,7 +6213,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>784</v>
       </c>
@@ -5255,7 +6249,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>783</v>
       </c>
@@ -5363,7 +6357,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>786</v>
       </c>
@@ -5507,7 +6501,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>709</v>
       </c>
@@ -5579,7 +6573,7 @@
         <v>42232</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>711</v>
       </c>
@@ -5615,7 +6609,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>714</v>
       </c>
@@ -5687,7 +6681,7 @@
         <v>42267</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>733</v>
       </c>
@@ -5759,7 +6753,7 @@
         <v>42295</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>716</v>
       </c>
@@ -5831,7 +6825,7 @@
         <v>42330</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>718</v>
       </c>
@@ -5939,7 +6933,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>720</v>
       </c>
@@ -6011,7 +7005,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>722</v>
       </c>
@@ -6047,7 +7041,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>724</v>
       </c>
@@ -6083,7 +7077,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>723</v>
       </c>
@@ -6119,7 +7113,7 @@
         <v>42428</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>727</v>
       </c>
@@ -6155,7 +7149,7 @@
         <v>42435</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>726</v>
       </c>
@@ -6263,7 +7257,7 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>729</v>
       </c>
@@ -6407,7 +7401,7 @@
         <v>42575</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>518</v>
       </c>
@@ -6479,7 +7473,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>520</v>
       </c>
@@ -6551,7 +7545,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>523</v>
       </c>
@@ -6587,7 +7581,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>542</v>
       </c>
@@ -6659,7 +7653,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>553</v>
       </c>
@@ -6695,7 +7689,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>525</v>
       </c>
@@ -6767,7 +7761,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>527</v>
       </c>
@@ -6875,7 +7869,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>529</v>
       </c>
@@ -6947,7 +7941,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>531</v>
       </c>
@@ -6983,7 +7977,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>533</v>
       </c>
@@ -7019,7 +8013,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>532</v>
       </c>
@@ -7055,7 +8049,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>536</v>
       </c>
@@ -7091,7 +8085,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>535</v>
       </c>
@@ -7199,7 +8193,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>538</v>
       </c>
@@ -7343,7 +8337,7 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>543</v>
       </c>
@@ -7415,7 +8409,7 @@
         <v>42963</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>545</v>
       </c>
@@ -7487,7 +8481,7 @@
         <v>42998</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>548</v>
       </c>
@@ -7559,7 +8553,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>550</v>
       </c>
@@ -7631,7 +8625,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>552</v>
       </c>
@@ -7739,7 +8733,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>555</v>
       </c>
@@ -7811,7 +8805,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>557</v>
       </c>
@@ -7847,7 +8841,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>559</v>
       </c>
@@ -7883,7 +8877,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>558</v>
       </c>
@@ -7919,7 +8913,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>182</v>
       </c>
@@ -7955,7 +8949,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>561</v>
       </c>
@@ -8063,7 +9057,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>176</v>
       </c>
@@ -8207,7 +9201,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>149</v>
       </c>
@@ -8279,7 +9273,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>150</v>
       </c>
@@ -8351,7 +9345,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>151</v>
       </c>
@@ -8387,7 +9381,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>190</v>
       </c>
@@ -8459,7 +9453,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>152</v>
       </c>
@@ -8531,7 +9525,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
@@ -8639,7 +9633,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -8711,7 +9705,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>155</v>
       </c>
@@ -8747,7 +9741,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -8783,7 +9777,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -8819,7 +9813,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -8855,7 +9849,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>158</v>
       </c>
@@ -8963,7 +9957,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -9107,7 +10101,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>112</v>
       </c>
@@ -9179,7 +10173,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>120</v>
       </c>
@@ -9251,7 +10245,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>118</v>
       </c>
@@ -9287,7 +10281,7 @@
         <v>43728</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>189</v>
       </c>
@@ -9359,7 +10353,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>114</v>
       </c>
@@ -9431,7 +10425,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>110</v>
       </c>
@@ -9539,7 +10533,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>117</v>
       </c>
@@ -9611,7 +10605,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>104</v>
       </c>
@@ -9647,7 +10641,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>116</v>
       </c>
@@ -9683,7 +10677,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>109</v>
       </c>
@@ -9719,7 +10713,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>121</v>
       </c>
@@ -9755,7 +10749,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>105</v>
       </c>
@@ -9863,7 +10857,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>107</v>
       </c>
@@ -10007,7 +11001,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>68</v>
       </c>
@@ -10079,7 +11073,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>77</v>
       </c>
@@ -10151,7 +11145,7 @@
         <v>44094</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>76</v>
       </c>
@@ -10187,7 +11181,7 @@
         <v>44094</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>188</v>
       </c>
@@ -10259,7 +11253,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>70</v>
       </c>
@@ -10331,7 +11325,7 @@
         <v>44157</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>66</v>
       </c>
@@ -10439,7 +11433,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>74</v>
       </c>
@@ -10511,7 +11505,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>58</v>
       </c>
@@ -10547,7 +11541,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>72</v>
       </c>
@@ -10583,7 +11577,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>64</v>
       </c>
@@ -10619,7 +11613,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>78</v>
       </c>
@@ -10655,7 +11649,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>60</v>
       </c>
@@ -10763,7 +11757,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>62</v>
       </c>
@@ -10907,7 +11901,7 @@
         <v>44401</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>193</v>
       </c>
@@ -10979,7 +11973,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>196</v>
       </c>
@@ -11051,7 +12045,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>198</v>
       </c>
@@ -11123,7 +12117,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>273</v>
       </c>
@@ -11159,7 +12153,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>202</v>
       </c>
@@ -11231,7 +12225,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>204</v>
       </c>
@@ -11339,7 +12333,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>207</v>
       </c>
@@ -11411,7 +12405,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
@@ -11447,7 +12441,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
@@ -11483,7 +12477,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
@@ -11519,7 +12513,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>213</v>
       </c>
@@ -11591,7 +12585,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -11663,7 +12657,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -11807,7 +12801,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>329</v>
       </c>
@@ -11879,7 +12873,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>325</v>
       </c>
@@ -11951,7 +12945,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>326</v>
       </c>
@@ -12023,7 +13017,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>297</v>
       </c>
@@ -12059,7 +13053,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>327</v>
       </c>
@@ -12095,7 +13089,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>296</v>
       </c>
@@ -12167,7 +13161,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>328</v>
       </c>
@@ -12239,7 +13233,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>281</v>
       </c>
@@ -12311,7 +13305,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>283</v>
       </c>
@@ -12347,7 +13341,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>286</v>
       </c>
@@ -12419,7 +13413,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>284</v>
       </c>
@@ -12455,7 +13449,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>287</v>
       </c>
@@ -12491,7 +13485,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>285</v>
       </c>
@@ -12599,7 +13593,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>349</v>
       </c>
@@ -12743,7 +13737,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>407</v>
       </c>
@@ -12815,7 +13809,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>409</v>
       </c>
@@ -12887,7 +13881,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>412</v>
       </c>
@@ -12959,7 +13953,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>417</v>
       </c>
@@ -12995,7 +13989,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>414</v>
       </c>
@@ -13067,7 +14061,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>416</v>
       </c>
@@ -13175,7 +14169,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>419</v>
       </c>
@@ -13247,7 +14241,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>421</v>
       </c>
@@ -13283,7 +14277,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>423</v>
       </c>
@@ -13319,7 +14313,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>422</v>
       </c>
@@ -13355,7 +14349,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>426</v>
       </c>
@@ -13391,7 +14385,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>425</v>
       </c>
@@ -13499,7 +14493,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>428</v>
       </c>
@@ -13643,9 +14637,9 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>946</v>
@@ -13654,13 +14648,13 @@
         <v>2024</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>144</v>
@@ -13678,10 +14672,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45504</v>
       </c>
+      <c r="M278" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N278">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>932</v>
@@ -13690,13 +14692,13 @@
         <v>2024</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>143</v>
@@ -13714,10 +14716,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45525</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M279" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N279">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>949</v>
@@ -13725,14 +14735,14 @@
       <c r="C280" s="5">
         <v>2024</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>1013</v>
+      <c r="D280" s="8" t="s">
+        <v>1038</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>144</v>
@@ -13748,12 +14758,20 @@
       </c>
       <c r="K280" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45539</v>
+        <v>45546</v>
+      </c>
+      <c r="M280" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N280">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>956</v>
@@ -13761,14 +14779,14 @@
       <c r="C281" s="5">
         <v>2024</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>1014</v>
+      <c r="D281" s="8" t="s">
+        <v>1039</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>143</v>
@@ -13784,12 +14802,20 @@
       </c>
       <c r="K281" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>45560</v>
+      </c>
+      <c r="M281" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N281">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>955</v>
@@ -13797,14 +14823,14 @@
       <c r="C282" s="5">
         <v>2024</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>1014</v>
+      <c r="D282" s="8" t="s">
+        <v>1039</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>144</v>
@@ -13820,7 +14846,15 @@
       </c>
       <c r="K282" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45553</v>
+        <v>45560</v>
+      </c>
+      <c r="M282" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N282">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -13834,13 +14868,13 @@
         <v>2024</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>143</v>
@@ -13856,10 +14890,18 @@
       </c>
       <c r="K283" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>45581</v>
+      </c>
+      <c r="M283" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N283">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>958</v>
       </c>
@@ -13870,13 +14912,13 @@
         <v>2024</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G284" s="5" t="s">
         <v>144</v>
@@ -13892,13 +14934,20 @@
       </c>
       <c r="K284" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45584</v>
-      </c>
-      <c r="N284" s="7"/>
-    </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>45581</v>
+      </c>
+      <c r="M284" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N284">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>950</v>
@@ -13907,13 +14956,13 @@
         <v>2024</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>144</v>
@@ -13931,10 +14980,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45609</v>
       </c>
+      <c r="M285" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N285">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>945</v>
@@ -13943,13 +15000,13 @@
         <v>2024</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>143</v>
@@ -13967,10 +15024,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45616</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M286" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N286">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>944</v>
@@ -13979,13 +15044,13 @@
         <v>2024</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>144</v>
@@ -14003,10 +15068,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45623</v>
       </c>
+      <c r="M287" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N287">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>934</v>
@@ -14015,13 +15088,13 @@
         <v>2024</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G288" s="5" t="s">
         <v>143</v>
@@ -14039,10 +15112,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45644</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M288" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N288">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>936</v>
@@ -14051,13 +15132,13 @@
         <v>2024</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>143</v>
@@ -14075,8 +15156,16 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45679</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M289" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N289">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>959</v>
       </c>
@@ -14087,13 +15176,13 @@
         <v>2024</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>144</v>
@@ -14109,12 +15198,20 @@
       </c>
       <c r="K290" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45686</v>
+      </c>
+      <c r="M290" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N290">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>937</v>
@@ -14123,13 +15220,13 @@
         <v>2024</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G291" s="5" t="s">
         <v>143</v>
@@ -14147,8 +15244,16 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45707</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M291" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N291">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>960</v>
       </c>
@@ -14159,13 +15264,13 @@
         <v>2024</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>144</v>
@@ -14183,8 +15288,16 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45707</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M292" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N292">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>961</v>
       </c>
@@ -14194,14 +15307,14 @@
       <c r="C293" s="5">
         <v>2024</v>
       </c>
-      <c r="D293" s="4" t="s">
-        <v>1020</v>
+      <c r="D293" s="8" t="s">
+        <v>1019</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>144</v>
@@ -14217,33 +15330,41 @@
       </c>
       <c r="K293" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45714</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>45721</v>
+      </c>
+      <c r="M293" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N293">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>962</v>
+        <v>1048</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="C294" s="5">
         <v>2024</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>144</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I294" s="6">
         <v>2025</v>
@@ -14253,33 +15374,41 @@
       </c>
       <c r="K294" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>45721</v>
+      </c>
+      <c r="M294" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N294">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C295" s="5">
         <v>2024</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G295" s="5" t="s">
         <v>144</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I295" s="6">
         <v>2025</v>
@@ -14289,30 +15418,38 @@
       </c>
       <c r="K295" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>45728</v>
+      </c>
+      <c r="M295" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N295">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="C296" s="5">
         <v>2024</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H296" s="4" t="s">
         <v>338</v>
@@ -14325,30 +15462,38 @@
       </c>
       <c r="K296" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45735</v>
+      </c>
+      <c r="M296" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N296">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C297" s="5">
         <v>2024</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>338</v>
@@ -14361,12 +15506,20 @@
       </c>
       <c r="K297" s="7">
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45749</v>
+      </c>
+      <c r="M297" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N297">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>931</v>
@@ -14375,13 +15528,13 @@
         <v>2024</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G298" s="5" t="s">
         <v>143</v>
@@ -14399,10 +15552,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45770</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M298" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N298">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>940</v>
@@ -14411,13 +15572,13 @@
         <v>2024</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G299" s="5" t="s">
         <v>144</v>
@@ -14435,10 +15596,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45770</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M299" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N299">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>943</v>
@@ -14447,13 +15616,13 @@
         <v>2024</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G300" s="5" t="s">
         <v>143</v>
@@ -14471,10 +15640,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45798</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M300" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N300">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>939</v>
@@ -14483,13 +15660,13 @@
         <v>2024</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G301" s="5" t="s">
         <v>143</v>
@@ -14507,10 +15684,18 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45833</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M301" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N301">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>938</v>
@@ -14519,13 +15704,13 @@
         <v>2024</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G302" s="5" t="s">
         <v>143</v>
@@ -14543,19 +15728,4441 @@
         <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
         <v>45861</v>
       </c>
+      <c r="M302" t="str">
+        <f>TEXT(temporadas[[#This Row],[fecha_pico]],"DDDD")</f>
+        <v>miércoles</v>
+      </c>
+      <c r="N302">
+        <f>_xlfn.ISOWEEKNUM(temporadas[[#This Row],[fecha_pico]])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C303">
+        <v>2025</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G303" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I303" s="6">
+        <v>2025</v>
+      </c>
+      <c r="J303" s="3">
+        <v>302</v>
+      </c>
+      <c r="K303" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C304">
+        <v>2025</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I304" s="6">
+        <v>2025</v>
+      </c>
+      <c r="J304" s="3">
+        <v>303</v>
+      </c>
+      <c r="K304" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C305">
+        <v>2025</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I305">
+        <v>2025</v>
+      </c>
+      <c r="J305" s="3">
+        <v>304</v>
+      </c>
+      <c r="K305" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C306">
+        <v>2025</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I306">
+        <v>2025</v>
+      </c>
+      <c r="J306" s="3">
+        <v>305</v>
+      </c>
+      <c r="K306" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C307">
+        <v>2025</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I307">
+        <v>2025</v>
+      </c>
+      <c r="J307" s="3">
+        <v>306</v>
+      </c>
+      <c r="K307" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C308">
+        <v>2025</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I308">
+        <v>2025</v>
+      </c>
+      <c r="J308" s="3">
+        <v>307</v>
+      </c>
+      <c r="K308" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C309">
+        <v>2025</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G309" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I309">
+        <v>2025</v>
+      </c>
+      <c r="J309" s="3">
+        <v>308</v>
+      </c>
+      <c r="K309" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C310">
+        <v>2025</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I310">
+        <v>2025</v>
+      </c>
+      <c r="J310" s="3">
+        <v>309</v>
+      </c>
+      <c r="K310" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C311">
+        <v>2025</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I311">
+        <v>2025</v>
+      </c>
+      <c r="J311" s="3">
+        <v>310</v>
+      </c>
+      <c r="K311" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C312">
+        <v>2025</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I312">
+        <v>2026</v>
+      </c>
+      <c r="J312" s="3">
+        <v>311</v>
+      </c>
+      <c r="K312" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C313">
+        <v>2025</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G313" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I313">
+        <v>2026</v>
+      </c>
+      <c r="J313" s="3">
+        <v>312</v>
+      </c>
+      <c r="K313" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C314">
+        <v>2025</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I314">
+        <v>2026</v>
+      </c>
+      <c r="J314" s="3">
+        <v>313</v>
+      </c>
+      <c r="K314" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C315">
+        <v>2025</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I315">
+        <v>2026</v>
+      </c>
+      <c r="J315" s="3">
+        <v>314</v>
+      </c>
+      <c r="K315" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C316">
+        <v>2025</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I316">
+        <v>2026</v>
+      </c>
+      <c r="J316" s="3">
+        <v>315</v>
+      </c>
+      <c r="K316" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C317">
+        <v>2025</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G317" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I317">
+        <v>2026</v>
+      </c>
+      <c r="J317" s="3">
+        <v>316</v>
+      </c>
+      <c r="K317" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C318">
+        <v>2025</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I318">
+        <v>2026</v>
+      </c>
+      <c r="J318" s="3">
+        <v>317</v>
+      </c>
+      <c r="K318" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C319">
+        <v>2025</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I319">
+        <v>2026</v>
+      </c>
+      <c r="J319" s="3">
+        <v>318</v>
+      </c>
+      <c r="K319" s="7">
+        <f>DATE(YEAR(temporadas[[#This Row],[fecha_pico]]),MONTH(temporadas[[#This Row],[fecha_pico]]),DAY(temporadas[[#This Row],[fecha_pico]]))</f>
+        <v>46235</v>
+      </c>
+      <c r="M319" s="9"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B320" t="s">
+        <v>936</v>
+      </c>
+      <c r="C320">
+        <v>2025</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H320" t="s">
+        <v>331</v>
+      </c>
+      <c r="I320">
+        <v>2026</v>
+      </c>
+      <c r="J320" s="3">
+        <v>319</v>
+      </c>
+      <c r="K320" s="7">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B321" t="s">
+        <v>936</v>
+      </c>
+      <c r="C321">
+        <v>2025</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G321" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H321" t="s">
+        <v>331</v>
+      </c>
+      <c r="I321">
+        <v>2026</v>
+      </c>
+      <c r="J321" s="3">
+        <v>320</v>
+      </c>
+      <c r="K321" s="7">
+        <f>+K320+7</f>
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B322" t="s">
+        <v>936</v>
+      </c>
+      <c r="C322">
+        <v>2025</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H322" t="s">
+        <v>331</v>
+      </c>
+      <c r="I322">
+        <v>2026</v>
+      </c>
+      <c r="J322" s="3">
+        <v>321</v>
+      </c>
+      <c r="K322" s="7">
+        <f t="shared" ref="K322:K385" si="0">+K321+7</f>
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B323" t="s">
+        <v>936</v>
+      </c>
+      <c r="C323">
+        <v>2025</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G323" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H323" t="s">
+        <v>331</v>
+      </c>
+      <c r="I323">
+        <v>2026</v>
+      </c>
+      <c r="J323" s="3">
+        <v>322</v>
+      </c>
+      <c r="K323" s="7">
+        <f t="shared" si="0"/>
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B324" t="s">
+        <v>936</v>
+      </c>
+      <c r="C324">
+        <v>2025</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H324" t="s">
+        <v>331</v>
+      </c>
+      <c r="I324">
+        <v>2026</v>
+      </c>
+      <c r="J324" s="3">
+        <v>323</v>
+      </c>
+      <c r="K324" s="7">
+        <f t="shared" si="0"/>
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B325" t="s">
+        <v>937</v>
+      </c>
+      <c r="C325">
+        <v>2025</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G325" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H325" t="s">
+        <v>332</v>
+      </c>
+      <c r="I325">
+        <v>2026</v>
+      </c>
+      <c r="J325" s="3">
+        <v>324</v>
+      </c>
+      <c r="K325" s="7">
+        <f t="shared" si="0"/>
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B326" t="s">
+        <v>937</v>
+      </c>
+      <c r="C326">
+        <v>2025</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H326" t="s">
+        <v>332</v>
+      </c>
+      <c r="I326">
+        <v>2026</v>
+      </c>
+      <c r="J326" s="3">
+        <v>325</v>
+      </c>
+      <c r="K326" s="7">
+        <f t="shared" si="0"/>
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B327" t="s">
+        <v>937</v>
+      </c>
+      <c r="C327">
+        <v>2025</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G327" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H327" t="s">
+        <v>332</v>
+      </c>
+      <c r="I327">
+        <v>2026</v>
+      </c>
+      <c r="J327" s="3">
+        <v>326</v>
+      </c>
+      <c r="K327" s="7">
+        <f t="shared" si="0"/>
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B328" t="s">
+        <v>937</v>
+      </c>
+      <c r="C328">
+        <v>2025</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H328" t="s">
+        <v>332</v>
+      </c>
+      <c r="I328">
+        <v>2026</v>
+      </c>
+      <c r="J328" s="3">
+        <v>327</v>
+      </c>
+      <c r="K328" s="7">
+        <f t="shared" si="0"/>
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B329" t="s">
+        <v>942</v>
+      </c>
+      <c r="C329">
+        <v>2025</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H329" t="s">
+        <v>333</v>
+      </c>
+      <c r="I329">
+        <v>2026</v>
+      </c>
+      <c r="J329" s="3">
+        <v>328</v>
+      </c>
+      <c r="K329" s="7">
+        <f t="shared" si="0"/>
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B330" t="s">
+        <v>942</v>
+      </c>
+      <c r="C330">
+        <v>2025</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H330" t="s">
+        <v>333</v>
+      </c>
+      <c r="I330">
+        <v>2026</v>
+      </c>
+      <c r="J330" s="3">
+        <v>329</v>
+      </c>
+      <c r="K330" s="7">
+        <f t="shared" si="0"/>
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B331" t="s">
+        <v>942</v>
+      </c>
+      <c r="C331">
+        <v>2025</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G331" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H331" t="s">
+        <v>333</v>
+      </c>
+      <c r="I331">
+        <v>2026</v>
+      </c>
+      <c r="J331" s="3">
+        <v>330</v>
+      </c>
+      <c r="K331" s="7">
+        <f t="shared" si="0"/>
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B332" t="s">
+        <v>942</v>
+      </c>
+      <c r="C332">
+        <v>2025</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H332" t="s">
+        <v>333</v>
+      </c>
+      <c r="I332">
+        <v>2026</v>
+      </c>
+      <c r="J332" s="3">
+        <v>331</v>
+      </c>
+      <c r="K332" s="7">
+        <f t="shared" si="0"/>
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B333" t="s">
+        <v>931</v>
+      </c>
+      <c r="C333">
+        <v>2025</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H333" t="s">
+        <v>334</v>
+      </c>
+      <c r="I333">
+        <v>2026</v>
+      </c>
+      <c r="J333" s="3">
+        <v>332</v>
+      </c>
+      <c r="K333" s="7">
+        <f t="shared" si="0"/>
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B334" t="s">
+        <v>931</v>
+      </c>
+      <c r="C334">
+        <v>2025</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H334" t="s">
+        <v>334</v>
+      </c>
+      <c r="I334">
+        <v>2026</v>
+      </c>
+      <c r="J334" s="3">
+        <v>333</v>
+      </c>
+      <c r="K334" s="7">
+        <f t="shared" si="0"/>
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B335" t="s">
+        <v>931</v>
+      </c>
+      <c r="C335">
+        <v>2025</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H335" t="s">
+        <v>334</v>
+      </c>
+      <c r="I335">
+        <v>2026</v>
+      </c>
+      <c r="J335" s="3">
+        <v>334</v>
+      </c>
+      <c r="K335" s="7">
+        <f t="shared" si="0"/>
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B336" t="s">
+        <v>931</v>
+      </c>
+      <c r="C336">
+        <v>2025</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H336" t="s">
+        <v>334</v>
+      </c>
+      <c r="I336">
+        <v>2026</v>
+      </c>
+      <c r="J336" s="3">
+        <v>335</v>
+      </c>
+      <c r="K336" s="7">
+        <f t="shared" si="0"/>
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B337" t="s">
+        <v>943</v>
+      </c>
+      <c r="C337">
+        <v>2025</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G337" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H337" t="s">
+        <v>335</v>
+      </c>
+      <c r="I337">
+        <v>2026</v>
+      </c>
+      <c r="J337" s="3">
+        <v>336</v>
+      </c>
+      <c r="K337" s="7">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B338" t="s">
+        <v>943</v>
+      </c>
+      <c r="C338">
+        <v>2025</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H338" t="s">
+        <v>335</v>
+      </c>
+      <c r="I338">
+        <v>2026</v>
+      </c>
+      <c r="J338" s="3">
+        <v>337</v>
+      </c>
+      <c r="K338" s="7">
+        <f t="shared" si="0"/>
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B339" t="s">
+        <v>943</v>
+      </c>
+      <c r="C339">
+        <v>2025</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G339" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H339" t="s">
+        <v>335</v>
+      </c>
+      <c r="I339">
+        <v>2026</v>
+      </c>
+      <c r="J339" s="3">
+        <v>338</v>
+      </c>
+      <c r="K339" s="7">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B340" t="s">
+        <v>943</v>
+      </c>
+      <c r="C340">
+        <v>2025</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H340" t="s">
+        <v>335</v>
+      </c>
+      <c r="I340">
+        <v>2026</v>
+      </c>
+      <c r="J340" s="3">
+        <v>339</v>
+      </c>
+      <c r="K340" s="7">
+        <f t="shared" si="0"/>
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B341" t="s">
+        <v>943</v>
+      </c>
+      <c r="C341">
+        <v>2025</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H341" t="s">
+        <v>335</v>
+      </c>
+      <c r="I341">
+        <v>2026</v>
+      </c>
+      <c r="J341" s="3">
+        <v>340</v>
+      </c>
+      <c r="K341" s="7">
+        <f t="shared" si="0"/>
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B342" t="s">
+        <v>939</v>
+      </c>
+      <c r="C342">
+        <v>2025</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H342" t="s">
+        <v>336</v>
+      </c>
+      <c r="I342">
+        <v>2026</v>
+      </c>
+      <c r="J342" s="3">
+        <v>341</v>
+      </c>
+      <c r="K342" s="7">
+        <f t="shared" si="0"/>
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B343" t="s">
+        <v>939</v>
+      </c>
+      <c r="C343">
+        <v>2025</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H343" t="s">
+        <v>336</v>
+      </c>
+      <c r="I343">
+        <v>2026</v>
+      </c>
+      <c r="J343" s="3">
+        <v>342</v>
+      </c>
+      <c r="K343" s="7">
+        <f t="shared" si="0"/>
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B344" t="s">
+        <v>939</v>
+      </c>
+      <c r="C344">
+        <v>2025</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H344" t="s">
+        <v>336</v>
+      </c>
+      <c r="I344">
+        <v>2026</v>
+      </c>
+      <c r="J344" s="3">
+        <v>343</v>
+      </c>
+      <c r="K344" s="7">
+        <f t="shared" si="0"/>
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B345" t="s">
+        <v>939</v>
+      </c>
+      <c r="C345">
+        <v>2025</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G345" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H345" t="s">
+        <v>336</v>
+      </c>
+      <c r="I345">
+        <v>2026</v>
+      </c>
+      <c r="J345" s="3">
+        <v>344</v>
+      </c>
+      <c r="K345" s="7">
+        <f t="shared" si="0"/>
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B346" t="s">
+        <v>938</v>
+      </c>
+      <c r="C346">
+        <v>2025</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H346" t="s">
+        <v>337</v>
+      </c>
+      <c r="I346">
+        <v>2026</v>
+      </c>
+      <c r="J346" s="3">
+        <v>345</v>
+      </c>
+      <c r="K346" s="7">
+        <f t="shared" si="0"/>
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B347" t="s">
+        <v>938</v>
+      </c>
+      <c r="C347">
+        <v>2025</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H347" t="s">
+        <v>337</v>
+      </c>
+      <c r="I347">
+        <v>2026</v>
+      </c>
+      <c r="J347" s="3">
+        <v>346</v>
+      </c>
+      <c r="K347" s="7">
+        <f t="shared" si="0"/>
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B348" t="s">
+        <v>938</v>
+      </c>
+      <c r="C348">
+        <v>2025</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H348" t="s">
+        <v>337</v>
+      </c>
+      <c r="I348">
+        <v>2026</v>
+      </c>
+      <c r="J348" s="3">
+        <v>347</v>
+      </c>
+      <c r="K348" s="7">
+        <f t="shared" si="0"/>
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B349" t="s">
+        <v>938</v>
+      </c>
+      <c r="C349">
+        <v>2025</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G349" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H349" t="s">
+        <v>337</v>
+      </c>
+      <c r="I349">
+        <v>2026</v>
+      </c>
+      <c r="J349" s="3">
+        <v>348</v>
+      </c>
+      <c r="K349" s="7">
+        <f t="shared" si="0"/>
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B350" t="s">
+        <v>938</v>
+      </c>
+      <c r="C350">
+        <v>2025</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H350" t="s">
+        <v>337</v>
+      </c>
+      <c r="I350">
+        <v>2026</v>
+      </c>
+      <c r="J350" s="3">
+        <v>349</v>
+      </c>
+      <c r="K350" s="7">
+        <f t="shared" si="0"/>
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B351" t="s">
+        <v>932</v>
+      </c>
+      <c r="C351">
+        <v>2025</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H351" t="s">
+        <v>338</v>
+      </c>
+      <c r="I351">
+        <v>2026</v>
+      </c>
+      <c r="J351" s="3">
+        <v>350</v>
+      </c>
+      <c r="K351" s="7">
+        <f t="shared" si="0"/>
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B352" t="s">
+        <v>932</v>
+      </c>
+      <c r="C352">
+        <v>2025</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H352" t="s">
+        <v>338</v>
+      </c>
+      <c r="I352">
+        <v>2026</v>
+      </c>
+      <c r="J352" s="3">
+        <v>351</v>
+      </c>
+      <c r="K352" s="7">
+        <f t="shared" si="0"/>
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B353" t="s">
+        <v>932</v>
+      </c>
+      <c r="C353">
+        <v>2025</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G353" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H353" t="s">
+        <v>338</v>
+      </c>
+      <c r="I353">
+        <v>2026</v>
+      </c>
+      <c r="J353" s="3">
+        <v>352</v>
+      </c>
+      <c r="K353" s="7">
+        <f t="shared" si="0"/>
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B354" t="s">
+        <v>932</v>
+      </c>
+      <c r="C354">
+        <v>2025</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H354" t="s">
+        <v>338</v>
+      </c>
+      <c r="I354">
+        <v>2026</v>
+      </c>
+      <c r="J354" s="3">
+        <v>353</v>
+      </c>
+      <c r="K354" s="7">
+        <f t="shared" si="0"/>
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B355" t="s">
+        <v>956</v>
+      </c>
+      <c r="C355">
+        <v>2025</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H355" t="s">
+        <v>339</v>
+      </c>
+      <c r="I355">
+        <v>2026</v>
+      </c>
+      <c r="J355" s="3">
+        <v>354</v>
+      </c>
+      <c r="K355" s="7">
+        <f t="shared" si="0"/>
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B356" t="s">
+        <v>956</v>
+      </c>
+      <c r="C356">
+        <v>2025</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H356" t="s">
+        <v>339</v>
+      </c>
+      <c r="I356">
+        <v>2026</v>
+      </c>
+      <c r="J356" s="3">
+        <v>355</v>
+      </c>
+      <c r="K356" s="7">
+        <f t="shared" si="0"/>
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B357" t="s">
+        <v>956</v>
+      </c>
+      <c r="C357">
+        <v>2025</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G357" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H357" t="s">
+        <v>339</v>
+      </c>
+      <c r="I357">
+        <v>2026</v>
+      </c>
+      <c r="J357" s="3">
+        <v>356</v>
+      </c>
+      <c r="K357" s="7">
+        <f t="shared" si="0"/>
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B358" t="s">
+        <v>956</v>
+      </c>
+      <c r="C358">
+        <v>2025</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H358" t="s">
+        <v>339</v>
+      </c>
+      <c r="I358">
+        <v>2026</v>
+      </c>
+      <c r="J358" s="3">
+        <v>357</v>
+      </c>
+      <c r="K358" s="7">
+        <f t="shared" si="0"/>
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B359" t="s">
+        <v>947</v>
+      </c>
+      <c r="C359">
+        <v>2025</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G359" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H359" t="s">
+        <v>340</v>
+      </c>
+      <c r="I359">
+        <v>2026</v>
+      </c>
+      <c r="J359" s="3">
+        <v>358</v>
+      </c>
+      <c r="K359" s="7">
+        <f t="shared" si="0"/>
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B360" t="s">
+        <v>947</v>
+      </c>
+      <c r="C360">
+        <v>2025</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H360" t="s">
+        <v>340</v>
+      </c>
+      <c r="I360">
+        <v>2026</v>
+      </c>
+      <c r="J360" s="3">
+        <v>359</v>
+      </c>
+      <c r="K360" s="7">
+        <f t="shared" si="0"/>
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B361" t="s">
+        <v>947</v>
+      </c>
+      <c r="C361">
+        <v>2025</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G361" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H361" t="s">
+        <v>340</v>
+      </c>
+      <c r="I361">
+        <v>2026</v>
+      </c>
+      <c r="J361" s="3">
+        <v>360</v>
+      </c>
+      <c r="K361" s="7">
+        <f t="shared" si="0"/>
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B362" t="s">
+        <v>947</v>
+      </c>
+      <c r="C362">
+        <v>2025</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H362" t="s">
+        <v>340</v>
+      </c>
+      <c r="I362">
+        <v>2026</v>
+      </c>
+      <c r="J362" s="3">
+        <v>361</v>
+      </c>
+      <c r="K362" s="7">
+        <f t="shared" si="0"/>
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B363" t="s">
+        <v>947</v>
+      </c>
+      <c r="C363">
+        <v>2025</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H363" t="s">
+        <v>340</v>
+      </c>
+      <c r="I363">
+        <v>2026</v>
+      </c>
+      <c r="J363" s="3">
+        <v>362</v>
+      </c>
+      <c r="K363" s="7">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B364" t="s">
+        <v>945</v>
+      </c>
+      <c r="C364">
+        <v>2025</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H364" t="s">
+        <v>341</v>
+      </c>
+      <c r="I364">
+        <v>2026</v>
+      </c>
+      <c r="J364" s="3">
+        <v>363</v>
+      </c>
+      <c r="K364" s="7">
+        <f t="shared" si="0"/>
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B365" t="s">
+        <v>945</v>
+      </c>
+      <c r="C365">
+        <v>2025</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H365" t="s">
+        <v>341</v>
+      </c>
+      <c r="I365">
+        <v>2026</v>
+      </c>
+      <c r="J365" s="3">
+        <v>364</v>
+      </c>
+      <c r="K365" s="7">
+        <f t="shared" si="0"/>
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B366" t="s">
+        <v>945</v>
+      </c>
+      <c r="C366">
+        <v>2025</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H366" t="s">
+        <v>341</v>
+      </c>
+      <c r="I366">
+        <v>2026</v>
+      </c>
+      <c r="J366" s="3">
+        <v>365</v>
+      </c>
+      <c r="K366" s="7">
+        <f t="shared" si="0"/>
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B367" t="s">
+        <v>945</v>
+      </c>
+      <c r="C367">
+        <v>2025</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H367" t="s">
+        <v>341</v>
+      </c>
+      <c r="I367">
+        <v>2026</v>
+      </c>
+      <c r="J367" s="3">
+        <v>366</v>
+      </c>
+      <c r="K367" s="7">
+        <f t="shared" si="0"/>
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B368" t="s">
+        <v>934</v>
+      </c>
+      <c r="C368">
+        <v>2025</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H368" t="s">
+        <v>342</v>
+      </c>
+      <c r="I368">
+        <v>2026</v>
+      </c>
+      <c r="J368" s="3">
+        <v>367</v>
+      </c>
+      <c r="K368" s="7">
+        <f t="shared" si="0"/>
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B369" t="s">
+        <v>934</v>
+      </c>
+      <c r="C369">
+        <v>2025</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H369" t="s">
+        <v>342</v>
+      </c>
+      <c r="I369">
+        <v>2026</v>
+      </c>
+      <c r="J369" s="3">
+        <v>368</v>
+      </c>
+      <c r="K369" s="7">
+        <f t="shared" si="0"/>
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B370" t="s">
+        <v>934</v>
+      </c>
+      <c r="C370">
+        <v>2025</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H370" t="s">
+        <v>342</v>
+      </c>
+      <c r="I370">
+        <v>2026</v>
+      </c>
+      <c r="J370" s="3">
+        <v>369</v>
+      </c>
+      <c r="K370" s="7">
+        <f t="shared" si="0"/>
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B371" t="s">
+        <v>934</v>
+      </c>
+      <c r="C371">
+        <v>2025</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H371" t="s">
+        <v>342</v>
+      </c>
+      <c r="I371">
+        <v>2026</v>
+      </c>
+      <c r="J371" s="3">
+        <v>370</v>
+      </c>
+      <c r="K371" s="7">
+        <f t="shared" si="0"/>
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B372" t="s">
+        <v>936</v>
+      </c>
+      <c r="C372">
+        <v>2025</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H372" t="s">
+        <v>331</v>
+      </c>
+      <c r="I372">
+        <v>2026</v>
+      </c>
+      <c r="J372" s="3">
+        <v>371</v>
+      </c>
+      <c r="K372" s="7">
+        <f t="shared" si="0"/>
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B373" t="s">
+        <v>936</v>
+      </c>
+      <c r="C373">
+        <v>2025</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H373" t="s">
+        <v>331</v>
+      </c>
+      <c r="I373">
+        <v>2026</v>
+      </c>
+      <c r="J373" s="3">
+        <v>372</v>
+      </c>
+      <c r="K373" s="7">
+        <f t="shared" si="0"/>
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B374" t="s">
+        <v>936</v>
+      </c>
+      <c r="C374">
+        <v>2025</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H374" t="s">
+        <v>331</v>
+      </c>
+      <c r="I374">
+        <v>2026</v>
+      </c>
+      <c r="J374" s="3">
+        <v>373</v>
+      </c>
+      <c r="K374" s="7">
+        <f t="shared" si="0"/>
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B375" t="s">
+        <v>936</v>
+      </c>
+      <c r="C375">
+        <v>2025</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H375" t="s">
+        <v>331</v>
+      </c>
+      <c r="I375">
+        <v>2026</v>
+      </c>
+      <c r="J375" s="3">
+        <v>374</v>
+      </c>
+      <c r="K375" s="7">
+        <f t="shared" si="0"/>
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B376" t="s">
+        <v>936</v>
+      </c>
+      <c r="C376">
+        <v>2025</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H376" t="s">
+        <v>331</v>
+      </c>
+      <c r="I376">
+        <v>2026</v>
+      </c>
+      <c r="J376" s="3">
+        <v>375</v>
+      </c>
+      <c r="K376" s="7">
+        <f t="shared" si="0"/>
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B377" t="s">
+        <v>937</v>
+      </c>
+      <c r="C377">
+        <v>2025</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H377" t="s">
+        <v>332</v>
+      </c>
+      <c r="I377">
+        <v>2026</v>
+      </c>
+      <c r="J377" s="3">
+        <v>376</v>
+      </c>
+      <c r="K377" s="7">
+        <f t="shared" si="0"/>
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B378" t="s">
+        <v>937</v>
+      </c>
+      <c r="C378">
+        <v>2025</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H378" t="s">
+        <v>332</v>
+      </c>
+      <c r="I378">
+        <v>2026</v>
+      </c>
+      <c r="J378" s="3">
+        <v>377</v>
+      </c>
+      <c r="K378" s="7">
+        <f t="shared" si="0"/>
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B379" t="s">
+        <v>937</v>
+      </c>
+      <c r="C379">
+        <v>2025</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H379" t="s">
+        <v>332</v>
+      </c>
+      <c r="I379">
+        <v>2026</v>
+      </c>
+      <c r="J379" s="3">
+        <v>378</v>
+      </c>
+      <c r="K379" s="7">
+        <f t="shared" si="0"/>
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B380" t="s">
+        <v>937</v>
+      </c>
+      <c r="C380">
+        <v>2025</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H380" t="s">
+        <v>332</v>
+      </c>
+      <c r="I380">
+        <v>2026</v>
+      </c>
+      <c r="J380" s="3">
+        <v>379</v>
+      </c>
+      <c r="K380" s="7">
+        <f t="shared" si="0"/>
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B381" t="s">
+        <v>942</v>
+      </c>
+      <c r="C381">
+        <v>2025</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H381" t="s">
+        <v>333</v>
+      </c>
+      <c r="I381">
+        <v>2026</v>
+      </c>
+      <c r="J381" s="3">
+        <v>380</v>
+      </c>
+      <c r="K381" s="7">
+        <f t="shared" si="0"/>
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B382" t="s">
+        <v>942</v>
+      </c>
+      <c r="C382">
+        <v>2025</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H382" t="s">
+        <v>333</v>
+      </c>
+      <c r="I382">
+        <v>2026</v>
+      </c>
+      <c r="J382" s="3">
+        <v>381</v>
+      </c>
+      <c r="K382" s="7">
+        <f t="shared" si="0"/>
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B383" t="s">
+        <v>942</v>
+      </c>
+      <c r="C383">
+        <v>2025</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H383" t="s">
+        <v>333</v>
+      </c>
+      <c r="I383">
+        <v>2026</v>
+      </c>
+      <c r="J383" s="3">
+        <v>382</v>
+      </c>
+      <c r="K383" s="7">
+        <f t="shared" si="0"/>
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B384" t="s">
+        <v>942</v>
+      </c>
+      <c r="C384">
+        <v>2025</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H384" t="s">
+        <v>333</v>
+      </c>
+      <c r="I384">
+        <v>2026</v>
+      </c>
+      <c r="J384" s="3">
+        <v>383</v>
+      </c>
+      <c r="K384" s="7">
+        <f t="shared" si="0"/>
+        <v>46107</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B385" t="s">
+        <v>931</v>
+      </c>
+      <c r="C385">
+        <v>2025</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H385" t="s">
+        <v>334</v>
+      </c>
+      <c r="I385">
+        <v>2026</v>
+      </c>
+      <c r="J385" s="3">
+        <v>384</v>
+      </c>
+      <c r="K385" s="7">
+        <f t="shared" si="0"/>
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B386" t="s">
+        <v>931</v>
+      </c>
+      <c r="C386">
+        <v>2025</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H386" t="s">
+        <v>334</v>
+      </c>
+      <c r="I386">
+        <v>2026</v>
+      </c>
+      <c r="J386" s="3">
+        <v>385</v>
+      </c>
+      <c r="K386" s="7">
+        <f t="shared" ref="K386:K424" si="1">+K385+7</f>
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B387" t="s">
+        <v>931</v>
+      </c>
+      <c r="C387">
+        <v>2025</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H387" t="s">
+        <v>334</v>
+      </c>
+      <c r="I387">
+        <v>2026</v>
+      </c>
+      <c r="J387" s="3">
+        <v>386</v>
+      </c>
+      <c r="K387" s="7">
+        <f t="shared" si="1"/>
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B388" t="s">
+        <v>931</v>
+      </c>
+      <c r="C388">
+        <v>2025</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H388" t="s">
+        <v>334</v>
+      </c>
+      <c r="I388">
+        <v>2026</v>
+      </c>
+      <c r="J388" s="3">
+        <v>387</v>
+      </c>
+      <c r="K388" s="7">
+        <f t="shared" si="1"/>
+        <v>46135</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B389" t="s">
+        <v>931</v>
+      </c>
+      <c r="C389">
+        <v>2025</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H389" t="s">
+        <v>334</v>
+      </c>
+      <c r="I389">
+        <v>2026</v>
+      </c>
+      <c r="J389" s="3">
+        <v>388</v>
+      </c>
+      <c r="K389" s="7">
+        <f t="shared" si="1"/>
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B390" t="s">
+        <v>943</v>
+      </c>
+      <c r="C390">
+        <v>2025</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H390" t="s">
+        <v>335</v>
+      </c>
+      <c r="I390">
+        <v>2026</v>
+      </c>
+      <c r="J390" s="3">
+        <v>389</v>
+      </c>
+      <c r="K390" s="7">
+        <f t="shared" si="1"/>
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B391" t="s">
+        <v>943</v>
+      </c>
+      <c r="C391">
+        <v>2025</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H391" t="s">
+        <v>335</v>
+      </c>
+      <c r="I391">
+        <v>2026</v>
+      </c>
+      <c r="J391" s="3">
+        <v>390</v>
+      </c>
+      <c r="K391" s="7">
+        <f t="shared" si="1"/>
+        <v>46156</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B392" t="s">
+        <v>943</v>
+      </c>
+      <c r="C392">
+        <v>2025</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H392" t="s">
+        <v>335</v>
+      </c>
+      <c r="I392">
+        <v>2026</v>
+      </c>
+      <c r="J392" s="3">
+        <v>391</v>
+      </c>
+      <c r="K392" s="7">
+        <f t="shared" si="1"/>
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B393" t="s">
+        <v>943</v>
+      </c>
+      <c r="C393">
+        <v>2025</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H393" t="s">
+        <v>335</v>
+      </c>
+      <c r="I393">
+        <v>2026</v>
+      </c>
+      <c r="J393" s="3">
+        <v>392</v>
+      </c>
+      <c r="K393" s="7">
+        <f t="shared" si="1"/>
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B394" t="s">
+        <v>939</v>
+      </c>
+      <c r="C394">
+        <v>2025</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H394" t="s">
+        <v>336</v>
+      </c>
+      <c r="I394">
+        <v>2026</v>
+      </c>
+      <c r="J394" s="3">
+        <v>393</v>
+      </c>
+      <c r="K394" s="7">
+        <f t="shared" si="1"/>
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B395" t="s">
+        <v>939</v>
+      </c>
+      <c r="C395">
+        <v>2025</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H395" t="s">
+        <v>336</v>
+      </c>
+      <c r="I395">
+        <v>2026</v>
+      </c>
+      <c r="J395" s="3">
+        <v>394</v>
+      </c>
+      <c r="K395" s="7">
+        <f t="shared" si="1"/>
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B396" t="s">
+        <v>939</v>
+      </c>
+      <c r="C396">
+        <v>2025</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H396" t="s">
+        <v>336</v>
+      </c>
+      <c r="I396">
+        <v>2026</v>
+      </c>
+      <c r="J396" s="3">
+        <v>395</v>
+      </c>
+      <c r="K396" s="7">
+        <f t="shared" si="1"/>
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B397" t="s">
+        <v>939</v>
+      </c>
+      <c r="C397">
+        <v>2025</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H397" t="s">
+        <v>336</v>
+      </c>
+      <c r="I397">
+        <v>2026</v>
+      </c>
+      <c r="J397" s="3">
+        <v>396</v>
+      </c>
+      <c r="K397" s="7">
+        <f t="shared" si="1"/>
+        <v>46198</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B398" t="s">
+        <v>938</v>
+      </c>
+      <c r="C398">
+        <v>2025</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H398" t="s">
+        <v>337</v>
+      </c>
+      <c r="I398">
+        <v>2026</v>
+      </c>
+      <c r="J398" s="3">
+        <v>397</v>
+      </c>
+      <c r="K398" s="7">
+        <f t="shared" si="1"/>
+        <v>46205</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B399" t="s">
+        <v>938</v>
+      </c>
+      <c r="C399">
+        <v>2025</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H399" t="s">
+        <v>337</v>
+      </c>
+      <c r="I399">
+        <v>2026</v>
+      </c>
+      <c r="J399" s="3">
+        <v>398</v>
+      </c>
+      <c r="K399" s="7">
+        <f t="shared" si="1"/>
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B400" t="s">
+        <v>938</v>
+      </c>
+      <c r="C400">
+        <v>2025</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H400" t="s">
+        <v>337</v>
+      </c>
+      <c r="I400">
+        <v>2026</v>
+      </c>
+      <c r="J400" s="3">
+        <v>399</v>
+      </c>
+      <c r="K400" s="7">
+        <f t="shared" si="1"/>
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B401" t="s">
+        <v>938</v>
+      </c>
+      <c r="C401">
+        <v>2025</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H401" t="s">
+        <v>337</v>
+      </c>
+      <c r="I401">
+        <v>2026</v>
+      </c>
+      <c r="J401" s="3">
+        <v>400</v>
+      </c>
+      <c r="K401" s="7">
+        <f t="shared" si="1"/>
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B402" t="s">
+        <v>938</v>
+      </c>
+      <c r="C402">
+        <v>2025</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H402" t="s">
+        <v>337</v>
+      </c>
+      <c r="I402">
+        <v>2026</v>
+      </c>
+      <c r="J402" s="3">
+        <v>401</v>
+      </c>
+      <c r="K402" s="7">
+        <f t="shared" si="1"/>
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B403" t="s">
+        <v>932</v>
+      </c>
+      <c r="C403">
+        <v>2025</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H403" t="s">
+        <v>338</v>
+      </c>
+      <c r="I403">
+        <v>2026</v>
+      </c>
+      <c r="J403" s="3">
+        <v>402</v>
+      </c>
+      <c r="K403" s="7">
+        <f t="shared" si="1"/>
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B404" t="s">
+        <v>932</v>
+      </c>
+      <c r="C404">
+        <v>2025</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H404" t="s">
+        <v>338</v>
+      </c>
+      <c r="I404">
+        <v>2026</v>
+      </c>
+      <c r="J404" s="3">
+        <v>403</v>
+      </c>
+      <c r="K404" s="7">
+        <f t="shared" si="1"/>
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B405" t="s">
+        <v>932</v>
+      </c>
+      <c r="C405">
+        <v>2025</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G405" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H405" t="s">
+        <v>338</v>
+      </c>
+      <c r="I405">
+        <v>2026</v>
+      </c>
+      <c r="J405" s="3">
+        <v>404</v>
+      </c>
+      <c r="K405" s="7">
+        <f t="shared" si="1"/>
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B406" t="s">
+        <v>932</v>
+      </c>
+      <c r="C406">
+        <v>2025</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H406" t="s">
+        <v>338</v>
+      </c>
+      <c r="I406">
+        <v>2026</v>
+      </c>
+      <c r="J406" s="3">
+        <v>405</v>
+      </c>
+      <c r="K406" s="7">
+        <f t="shared" si="1"/>
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B407" t="s">
+        <v>956</v>
+      </c>
+      <c r="C407">
+        <v>2025</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H407" t="s">
+        <v>339</v>
+      </c>
+      <c r="I407">
+        <v>2026</v>
+      </c>
+      <c r="J407" s="3">
+        <v>406</v>
+      </c>
+      <c r="K407" s="7">
+        <f t="shared" si="1"/>
+        <v>46268</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B408" t="s">
+        <v>956</v>
+      </c>
+      <c r="C408">
+        <v>2025</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H408" t="s">
+        <v>339</v>
+      </c>
+      <c r="I408">
+        <v>2026</v>
+      </c>
+      <c r="J408" s="3">
+        <v>407</v>
+      </c>
+      <c r="K408" s="7">
+        <f t="shared" si="1"/>
+        <v>46275</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B409" t="s">
+        <v>956</v>
+      </c>
+      <c r="C409">
+        <v>2025</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H409" t="s">
+        <v>339</v>
+      </c>
+      <c r="I409">
+        <v>2026</v>
+      </c>
+      <c r="J409" s="3">
+        <v>408</v>
+      </c>
+      <c r="K409" s="7">
+        <f t="shared" si="1"/>
+        <v>46282</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B410" t="s">
+        <v>956</v>
+      </c>
+      <c r="C410">
+        <v>2025</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H410" t="s">
+        <v>339</v>
+      </c>
+      <c r="I410">
+        <v>2026</v>
+      </c>
+      <c r="J410" s="3">
+        <v>409</v>
+      </c>
+      <c r="K410" s="7">
+        <f t="shared" si="1"/>
+        <v>46289</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B411" t="s">
+        <v>947</v>
+      </c>
+      <c r="C411">
+        <v>2025</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H411" t="s">
+        <v>340</v>
+      </c>
+      <c r="I411">
+        <v>2026</v>
+      </c>
+      <c r="J411" s="3">
+        <v>410</v>
+      </c>
+      <c r="K411" s="7">
+        <f t="shared" si="1"/>
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B412" t="s">
+        <v>947</v>
+      </c>
+      <c r="C412">
+        <v>2025</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H412" t="s">
+        <v>340</v>
+      </c>
+      <c r="I412">
+        <v>2026</v>
+      </c>
+      <c r="J412" s="3">
+        <v>411</v>
+      </c>
+      <c r="K412" s="7">
+        <f t="shared" si="1"/>
+        <v>46303</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B413" t="s">
+        <v>947</v>
+      </c>
+      <c r="C413">
+        <v>2025</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H413" t="s">
+        <v>340</v>
+      </c>
+      <c r="I413">
+        <v>2026</v>
+      </c>
+      <c r="J413" s="3">
+        <v>412</v>
+      </c>
+      <c r="K413" s="7">
+        <f t="shared" si="1"/>
+        <v>46310</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B414" t="s">
+        <v>947</v>
+      </c>
+      <c r="C414">
+        <v>2025</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H414" t="s">
+        <v>340</v>
+      </c>
+      <c r="I414">
+        <v>2026</v>
+      </c>
+      <c r="J414" s="3">
+        <v>413</v>
+      </c>
+      <c r="K414" s="7">
+        <f t="shared" si="1"/>
+        <v>46317</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B415" t="s">
+        <v>947</v>
+      </c>
+      <c r="C415">
+        <v>2025</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H415" t="s">
+        <v>340</v>
+      </c>
+      <c r="I415">
+        <v>2026</v>
+      </c>
+      <c r="J415" s="3">
+        <v>414</v>
+      </c>
+      <c r="K415" s="7">
+        <f t="shared" si="1"/>
+        <v>46324</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B416" t="s">
+        <v>945</v>
+      </c>
+      <c r="C416">
+        <v>2025</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H416" t="s">
+        <v>341</v>
+      </c>
+      <c r="I416">
+        <v>2026</v>
+      </c>
+      <c r="J416" s="3">
+        <v>415</v>
+      </c>
+      <c r="K416" s="7">
+        <f t="shared" si="1"/>
+        <v>46331</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B417" t="s">
+        <v>945</v>
+      </c>
+      <c r="C417">
+        <v>2025</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H417" t="s">
+        <v>341</v>
+      </c>
+      <c r="I417">
+        <v>2026</v>
+      </c>
+      <c r="J417" s="3">
+        <v>416</v>
+      </c>
+      <c r="K417" s="7">
+        <f t="shared" si="1"/>
+        <v>46338</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B418" t="s">
+        <v>945</v>
+      </c>
+      <c r="C418">
+        <v>2025</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H418" t="s">
+        <v>341</v>
+      </c>
+      <c r="I418">
+        <v>2026</v>
+      </c>
+      <c r="J418" s="3">
+        <v>417</v>
+      </c>
+      <c r="K418" s="7">
+        <f t="shared" si="1"/>
+        <v>46345</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B419" t="s">
+        <v>945</v>
+      </c>
+      <c r="C419">
+        <v>2025</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F419" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H419" t="s">
+        <v>341</v>
+      </c>
+      <c r="I419">
+        <v>2026</v>
+      </c>
+      <c r="J419" s="3">
+        <v>418</v>
+      </c>
+      <c r="K419" s="7">
+        <f t="shared" si="1"/>
+        <v>46352</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B420" t="s">
+        <v>934</v>
+      </c>
+      <c r="C420">
+        <v>2025</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H420" t="s">
+        <v>342</v>
+      </c>
+      <c r="I420">
+        <v>2026</v>
+      </c>
+      <c r="J420" s="3">
+        <v>419</v>
+      </c>
+      <c r="K420" s="7">
+        <f t="shared" si="1"/>
+        <v>46359</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B421" t="s">
+        <v>934</v>
+      </c>
+      <c r="C421">
+        <v>2025</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H421" t="s">
+        <v>342</v>
+      </c>
+      <c r="I421">
+        <v>2026</v>
+      </c>
+      <c r="J421" s="3">
+        <v>420</v>
+      </c>
+      <c r="K421" s="7">
+        <f t="shared" si="1"/>
+        <v>46366</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B422" t="s">
+        <v>934</v>
+      </c>
+      <c r="C422">
+        <v>2025</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H422" t="s">
+        <v>342</v>
+      </c>
+      <c r="I422">
+        <v>2026</v>
+      </c>
+      <c r="J422" s="3">
+        <v>421</v>
+      </c>
+      <c r="K422" s="7">
+        <f t="shared" si="1"/>
+        <v>46373</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B423" t="s">
+        <v>934</v>
+      </c>
+      <c r="C423">
+        <v>2025</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H423" t="s">
+        <v>342</v>
+      </c>
+      <c r="I423">
+        <v>2026</v>
+      </c>
+      <c r="J423" s="3">
+        <v>422</v>
+      </c>
+      <c r="K423" s="7">
+        <f t="shared" si="1"/>
+        <v>46380</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B424" t="s">
+        <v>934</v>
+      </c>
+      <c r="C424">
+        <v>2025</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H424" t="s">
+        <v>342</v>
+      </c>
+      <c r="I424">
+        <v>2026</v>
+      </c>
+      <c r="J424" s="3">
+        <v>423</v>
+      </c>
+      <c r="K424" s="7">
+        <f t="shared" si="1"/>
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K425" s="7"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K426" s="7"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K427" s="7"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K428" s="7"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K429" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  <conditionalFormatting sqref="A1:A319 A425:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  <conditionalFormatting sqref="A320:A424">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F304 F320:F1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305:F319">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
